--- a/biology/Médecine/Ambroise_Viaud_Grand-Marais/Ambroise_Viaud_Grand-Marais.xlsx
+++ b/biology/Médecine/Ambroise_Viaud_Grand-Marais/Ambroise_Viaud_Grand-Marais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ambroise Viaud Grand-Marais est un médecin, historien et botaniste français né le 23 avril 1833 à Challans et mort le 16 janvier 1913 à Nantes.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ambroise Viaud Grand-Marais est le fils de Jacques Ambroise Viaud Grand-Marais, notaire royal à Challans puis à Nantes, et d'Emma Eugénie Letenneur. Il est le frère de l'historien André Viaud Grand-Marais et le gendre d'Alexis Talvande.
 Il suit ses études de médecine à Paris, obtenant son doctorat en 1858. Il devient professeur à l'École de médecine de Nantes de 1868 à 1903, titulaire de la chaire de pathologie interne et de pathologie générale. Il se consacre également à des travaux botaniques.
@@ -544,7 +558,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Tableau synoptique des serpents du Nord, de l'Ouest et du Centre de la France (1895)
 Les Abbés du monastère de la Blanche à Noirmoutier (1890)
@@ -584,7 +600,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Officier d'Académie
 Officier de l'Instruction publique
@@ -616,7 +634,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Maison natale d'Ambroise Viaud Grand-Marais, à Challans. Une plaque commémorative est présente.
